--- a/app/config/tables/household/forms/household/household.xlsx
+++ b/app/config/tables/household/forms/household/household.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\household\forms\household\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1165" yWindow="0" windowWidth="23158" windowHeight="14701" activeTab="4"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="27380" windowHeight="19580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -276,9 +271,6 @@
     <t>Record Location</t>
   </si>
   <si>
-    <t>'household_id='+encodeURIComponent(data('household_id'))</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -304,6 +296,9 @@
   </si>
   <si>
     <t>["household_id","num_rooms","electricity","water","location_latitude","location_longitude","location_altitude","location_accuracy","owner","youngest"]</t>
+  </si>
+  <si>
+    <t>'household_id='+opendatakit.encodeURIDataElement('household_id')</t>
   </si>
 </sst>
 </file>
@@ -583,7 +578,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,7 +613,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,17 +828,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="51.625" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="31.375" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="12">
       <c r="A1" s="11" t="s">
         <v>51</v>
       </c>
@@ -871,7 +866,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
@@ -881,14 +876,14 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="A4" s="8" t="s">
         <v>54</v>
       </c>
@@ -898,14 +893,14 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
@@ -915,7 +910,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="12">
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -941,14 +936,14 @@
       <selection activeCell="A5" sqref="A5:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -962,7 +957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,7 +968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,14 +997,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1020,7 +1015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1036,7 +1031,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1044,7 +1039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1052,7 +1047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1060,7 +1055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1068,7 +1063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -1076,7 +1071,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1099,24 +1094,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="40.375" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="12" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>45</v>
       </c>
@@ -1139,7 +1134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="24">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1159,10 +1154,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="36">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1182,10 +1177,10 @@
         <v>74</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="37.35" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1205,7 +1200,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1223,25 +1218,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="13.375" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="1" max="5" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1256,21 +1251,21 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1281,6 +1276,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1292,17 +1292,17 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,10 +1328,10 @@
         <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1418,16 +1418,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="36">
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="24.9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="24">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="24.9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="24.9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="24">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1535,15 +1535,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="4" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="24.9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="29.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="M2"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="29.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>

--- a/app/config/tables/household/forms/household/household.xlsx
+++ b/app/config/tables/household/forms/household/household.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\household\forms\household\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="0" windowWidth="27380" windowHeight="19580" activeTab="3"/>
+    <workbookView xWindow="1165" yWindow="0" windowWidth="27386" windowHeight="19584" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>type</t>
   </si>
@@ -133,12 +138,6 @@
     <t>setting_name</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>linked_table</t>
   </si>
   <si>
@@ -199,9 +198,6 @@
     <t>display.hide_add_instance</t>
   </si>
   <si>
-    <t>display.new_instance_text</t>
-  </si>
-  <si>
     <t>display.hide_delete_button</t>
   </si>
   <si>
@@ -265,9 +261,6 @@
     <t>Questions are asked to members of the household who are at least 5 years old.</t>
   </si>
   <si>
-    <t>buttonLabel</t>
-  </si>
-  <si>
     <t>Record Location</t>
   </si>
   <si>
@@ -299,12 +292,27 @@
   </si>
   <si>
     <t>'household_id='+opendatakit.encodeURIDataElement('household_id')</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.button_label.text</t>
+  </si>
+  <si>
+    <t>display.new_instance_label.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -825,25 +833,26 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.375" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="12">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
@@ -855,10 +864,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -866,9 +875,9 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="12">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -876,16 +885,16 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="12">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="12">
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -893,16 +902,16 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="12">
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="12">
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -910,7 +919,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="12">
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -936,14 +945,14 @@
       <selection activeCell="A5" sqref="A5:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -957,7 +966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -968,7 +977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -994,17 +1003,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1012,10 +1021,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,7 +1040,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1047,33 +1056,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+    <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
       <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
       <c r="C8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1094,113 +1103,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="40.375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1">
+    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="37.35" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="24">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1222,21 +1231,21 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="1" max="5" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1251,21 +1260,21 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1289,20 +1298,21 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="31.125" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1313,25 +1323,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    <row r="3" spans="1:9" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+    <row r="4" spans="1:9" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+    <row r="5" spans="1:9" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1385,7 +1395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1415,19 +1425,19 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1438,13 +1448,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -1452,34 +1462,34 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="36">
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="24">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="24.9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1487,12 +1497,12 @@
       <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="24.9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1502,18 +1512,18 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="24">
+    <row r="5" spans="1:11" ht="24.9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1531,19 +1541,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="24.9" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1551,27 +1562,27 @@
         <v>26</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="61.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1582,15 +1593,15 @@
       <c r="M2"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" s="13" t="b">
         <v>1</v>

--- a/app/config/tables/household/forms/household/household.xlsx
+++ b/app/config/tables/household/forms/household/household.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="0" windowWidth="27380" windowHeight="19580" activeTab="3"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="27380" windowHeight="19580" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
     <sheet name="queries" sheetId="6" r:id="rId4"/>
-    <sheet name="properties" sheetId="10" r:id="rId5"/>
-    <sheet name="household" sheetId="7" r:id="rId6"/>
-    <sheet name="members" sheetId="8" r:id="rId7"/>
-    <sheet name="education" sheetId="9" r:id="rId8"/>
+    <sheet name="household" sheetId="7" r:id="rId5"/>
+    <sheet name="members" sheetId="8" r:id="rId6"/>
+    <sheet name="education" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -70,9 +69,6 @@
     <t>Who is the owner of the household?</t>
   </si>
   <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>How many rooms does the house contain?</t>
   </si>
   <si>
@@ -274,31 +270,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>partition</t>
-  </si>
-  <si>
-    <t>aspect</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>colOrder</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>["household_id","num_rooms","electricity","water","location_latitude","location_longitude","location_altitude","location_accuracy","owner","youngest"]</t>
-  </si>
-  <si>
     <t>'household_id='+opendatakit.encodeURIDataElement('household_id')</t>
+  </si>
+  <si>
+    <t>household_owner</t>
   </si>
 </sst>
 </file>
@@ -840,25 +815,25 @@
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="12">
       <c r="A1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -868,7 +843,7 @@
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="A2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -885,7 +860,7 @@
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="A4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -902,7 +877,7 @@
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="A6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -945,16 +920,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
@@ -1006,13 +981,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
@@ -1020,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
@@ -1033,50 +1008,50 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1113,94 +1088,94 @@
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1">
       <c r="A1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="G1" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="24">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="36">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1215,76 +1190,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="5" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -1307,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1">
@@ -1336,10 +1241,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="1"/>
       <c r="I2" t="b">
@@ -1351,38 +1256,38 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1396,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1410,12 +1315,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1432,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -1454,13 +1359,13 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="36">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -1469,17 +1374,17 @@
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="24">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1489,13 +1394,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1504,16 +1409,16 @@
     </row>
     <row r="5" spans="1:11" ht="24">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1527,7 +1432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -1548,30 +1453,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1584,13 +1489,13 @@
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="13" t="b">
         <v>1</v>

--- a/app/config/tables/household/forms/household/household.xlsx
+++ b/app/config/tables/household/forms/household/household.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1165" yWindow="0" windowWidth="27386" windowHeight="19584" activeTab="7"/>
+    <workbookView xWindow="1165" yWindow="0" windowWidth="27386" windowHeight="19584" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
   <si>
     <t>type</t>
   </si>
@@ -156,9 +156,6 @@
     <t>[ data('household_id') ]</t>
   </si>
   <si>
-    <t>auxillaryHash</t>
-  </si>
-  <si>
     <t>hideInContents</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>["household_id","num_rooms","electricity","water","location_latitude","location_longitude","location_altitude","location_accuracy","owner","youngest"]</t>
   </si>
   <si>
-    <t>'household_id='+opendatakit.encodeURIDataElement('household_id')</t>
-  </si>
-  <si>
     <t>display.prompt.text</t>
   </si>
   <si>
@@ -307,6 +301,18 @@
   </si>
   <si>
     <t>display.new_instance_label.text</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{ household_id: data('household_id') }</t>
   </si>
 </sst>
 </file>
@@ -849,10 +855,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
@@ -864,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -877,7 +883,7 @@
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -894,7 +900,7 @@
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -911,7 +917,7 @@
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1021,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1061,28 +1067,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1101,37 +1107,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="7" max="7" width="40.375" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="8" max="8" width="35.375" customWidth="1"/>
     <col min="9" max="9" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>37</v>
@@ -1140,21 +1146,24 @@
         <v>38</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>39</v>
@@ -1163,44 +1172,50 @@
         <v>40</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="37.35" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -1209,7 +1224,10 @@
         <v>40</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1239,13 +1257,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1262,19 +1280,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1323,22 +1341,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="29.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1406,7 +1424,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1448,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -1464,13 +1482,13 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -1482,14 +1500,14 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1502,7 +1520,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1514,16 +1532,16 @@
     </row>
     <row r="5" spans="1:11" ht="24.9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1554,7 +1572,7 @@
     <col min="6" max="6" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="24.9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1562,27 +1580,27 @@
         <v>26</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="61.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1598,10 +1616,10 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="13" t="b">
         <v>1</v>

--- a/app/config/tables/household/forms/household/household.xlsx
+++ b/app/config/tables/household/forms/household/household.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1165" yWindow="0" windowWidth="27386" windowHeight="19584" activeTab="3"/>
+    <workbookView xWindow="1165" yWindow="0" windowWidth="27386" windowHeight="19584" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>type</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>data_value</t>
-  </si>
-  <si>
-    <t>display.image</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>survey</t>
@@ -830,10 +824,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
@@ -845,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -858,7 +852,7 @@
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -875,7 +869,7 @@
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -892,7 +886,7 @@
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -920,20 +914,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -941,13 +936,10 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -996,13 +988,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1031,10 +1023,10 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -1042,28 +1034,28 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1084,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1103,106 +1095,106 @@
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="37.35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1246,22 +1238,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="29.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1329,7 +1321,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -1387,13 +1379,13 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -1402,17 +1394,17 @@
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="24.9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1425,10 +1417,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1437,16 +1429,16 @@
     </row>
     <row r="5" spans="1:11" ht="24.9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1485,27 +1477,27 @@
         <v>25</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="61.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1518,13 +1510,13 @@
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="69.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" s="13" t="b">
         <v>1</v>
